--- a/contents/battle/battle_8/battle_8.xlsx
+++ b/contents/battle/battle_8/battle_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle\battle_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E09DC1A-11D2-4AE8-9249-232C168A34B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C48442-2109-4C17-BD0A-BE8684BB089D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="60">
   <si>
     <t>x</t>
   </si>
@@ -3971,10 +3971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE17DB7-E6BE-4178-A86C-3E370AE7D84E}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4190,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="8">
         <v>3</v>
@@ -4260,7 +4260,7 @@
         <v>25</v>
       </c>
       <c r="J8" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="8">
         <v>3</v>
@@ -4397,7 +4397,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="17">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J12" s="8">
         <v>1</v>
@@ -4432,7 +4432,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="17">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
@@ -4467,7 +4467,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="17">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J14" s="8">
         <v>1</v>
@@ -4483,17 +4483,17 @@
       <c r="B15" s="8">
         <v>4</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
+      <c r="C15" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="17">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="J15" s="8">
         <v>1</v>
@@ -4518,17 +4518,17 @@
       <c r="B16" s="8">
         <v>4</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
+      <c r="C16" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -4537,10 +4537,10 @@
         <v>6</v>
       </c>
       <c r="I16" s="17">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="8">
         <v>3</v>
@@ -4572,7 +4572,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J17" s="8">
         <v>1</v>
@@ -4607,7 +4607,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="17">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J18" s="8">
         <v>1</v>
@@ -4615,8 +4615,6 @@
       <c r="K18" s="8">
         <v>3</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
@@ -4644,7 +4642,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="17">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J19" s="8">
         <v>1</v>
@@ -4652,8 +4650,6 @@
       <c r="K19" s="8">
         <v>3</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -4681,7 +4677,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="17">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J20" s="8">
         <v>1</v>
@@ -4689,8 +4685,6 @@
       <c r="K20" s="8">
         <v>3</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
@@ -4699,35 +4693,33 @@
       <c r="B21" s="8">
         <v>4</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8">
-        <v>5</v>
-      </c>
-      <c r="I21" s="15">
-        <v>85</v>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21" s="17">
+        <v>27</v>
       </c>
       <c r="J21" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" s="8">
         <v>3</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -4736,26 +4728,26 @@
       <c r="B22" s="8">
         <v>4</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="8">
-        <v>2</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8">
-        <v>5</v>
-      </c>
-      <c r="I22" s="15">
-        <v>89</v>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22" s="17">
+        <v>28</v>
       </c>
       <c r="J22" s="8">
         <v>1</v>
@@ -4773,26 +4765,26 @@
       <c r="B23" s="8">
         <v>4</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="8">
-        <v>2</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8">
-        <v>5</v>
-      </c>
-      <c r="I23" s="15">
-        <v>90</v>
+      <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23" s="17">
+        <v>29</v>
       </c>
       <c r="J23" s="8">
         <v>1</v>
@@ -4810,26 +4802,26 @@
       <c r="B24" s="8">
         <v>4</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="8">
-        <v>2</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8">
-        <v>5</v>
-      </c>
-      <c r="I24" s="15">
-        <v>96</v>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24" s="17">
+        <v>30</v>
       </c>
       <c r="J24" s="8">
         <v>1</v>
@@ -4866,10 +4858,10 @@
         <v>5</v>
       </c>
       <c r="I25" s="15">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J25" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="8">
         <v>3</v>
@@ -4903,10 +4895,10 @@
         <v>5</v>
       </c>
       <c r="I26" s="15">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="J26" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26" s="8">
         <v>3</v>
@@ -4919,28 +4911,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8">
         <v>5</v>
       </c>
-      <c r="I27" s="9">
-        <v>140</v>
+      <c r="I27" s="15">
+        <v>90</v>
       </c>
       <c r="J27" s="8">
         <v>1</v>
@@ -4956,28 +4948,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8">
         <v>5</v>
       </c>
-      <c r="I28" s="9">
-        <v>141</v>
+      <c r="I28" s="15">
+        <v>91</v>
       </c>
       <c r="J28" s="8">
         <v>1</v>
@@ -4993,28 +4985,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="8">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
         <v>5</v>
       </c>
-      <c r="I29" s="9">
-        <v>142</v>
+      <c r="I29" s="15">
+        <v>96</v>
       </c>
       <c r="J29" s="8">
         <v>1</v>
@@ -5030,31 +5022,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="8">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8">
         <v>5</v>
       </c>
-      <c r="I30" s="9">
-        <v>143</v>
+      <c r="I30" s="15">
+        <v>102</v>
       </c>
       <c r="J30" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30" s="8">
         <v>3</v>
@@ -5088,7 +5080,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="9">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J31" s="8">
         <v>1</v>
@@ -5125,7 +5117,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="9">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J32" s="8">
         <v>1</v>
@@ -5162,7 +5154,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="9">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J33" s="8">
         <v>1</v>
@@ -5199,13 +5191,13 @@
         <v>5</v>
       </c>
       <c r="I34" s="9">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J34" s="8">
         <v>1</v>
       </c>
       <c r="K34" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
@@ -5217,17 +5209,17 @@
       <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>45</v>
+      <c r="C35" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -5236,7 +5228,7 @@
         <v>5</v>
       </c>
       <c r="I35" s="9">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J35" s="8">
         <v>1</v>
@@ -5254,17 +5246,17 @@
       <c r="B36" s="8">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>45</v>
+      <c r="C36" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -5273,7 +5265,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="9">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J36" s="8">
         <v>1</v>
@@ -5291,17 +5283,17 @@
       <c r="B37" s="8">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>45</v>
+      <c r="C37" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5310,7 +5302,7 @@
         <v>5</v>
       </c>
       <c r="I37" s="9">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J37" s="8">
         <v>1</v>
@@ -5321,24 +5313,24 @@
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
       <c r="B38" s="8">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>45</v>
+      <c r="C38" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -5347,7 +5339,7 @@
         <v>5</v>
       </c>
       <c r="I38" s="9">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J38" s="8">
         <v>1</v>
@@ -5355,8 +5347,8 @@
       <c r="K38" s="8">
         <v>3</v>
       </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
     </row>
     <row r="39" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
@@ -5384,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="I39" s="9">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J39" s="8">
         <v>1</v>
@@ -5421,7 +5413,7 @@
         <v>5</v>
       </c>
       <c r="I40" s="9">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J40" s="8">
         <v>1</v>
@@ -5458,13 +5450,13 @@
         <v>5</v>
       </c>
       <c r="I41" s="9">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J41" s="8">
         <v>1</v>
       </c>
       <c r="K41" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
@@ -5495,13 +5487,13 @@
         <v>5</v>
       </c>
       <c r="I42" s="9">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J42" s="8">
         <v>1</v>
       </c>
       <c r="K42" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -5513,26 +5505,26 @@
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>59</v>
+      <c r="C43" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
         <v>5</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
-      </c>
       <c r="I43" s="9">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J43" s="8">
         <v>1</v>
@@ -5550,26 +5542,26 @@
       <c r="B44" s="8">
         <v>1</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>59</v>
+      <c r="C44" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
         <v>5</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>6</v>
-      </c>
       <c r="I44" s="9">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J44" s="8">
         <v>1</v>
@@ -5587,26 +5579,26 @@
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>59</v>
+      <c r="C45" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
         <v>5</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>6</v>
-      </c>
       <c r="I45" s="9">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J45" s="8">
         <v>1</v>
@@ -5617,70 +5609,70 @@
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
     </row>
-    <row r="46" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>57</v>
+      <c r="B46" s="8">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I46" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J46" s="8">
         <v>1</v>
       </c>
       <c r="K46" s="8">
-        <v>3</v>
-      </c>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>57</v>
+      <c r="B47" s="8">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I47" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J47" s="8">
         <v>1</v>
@@ -5695,29 +5687,29 @@
       <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>57</v>
+      <c r="B48" s="8">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I48" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J48" s="8">
         <v>1</v>
@@ -5732,35 +5724,35 @@
       <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>57</v>
+      <c r="B49" s="8">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I49" s="9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J49" s="8">
         <v>1</v>
       </c>
       <c r="K49" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
@@ -5772,26 +5764,26 @@
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="5">
-        <v>3</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5">
-        <v>2</v>
-      </c>
-      <c r="H50" s="5">
-        <v>7</v>
-      </c>
-      <c r="I50" s="2">
-        <v>72</v>
+      <c r="C50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9">
+        <v>158</v>
       </c>
       <c r="J50" s="8">
         <v>1</v>
@@ -5809,26 +5801,26 @@
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="5">
-        <v>3</v>
-      </c>
-      <c r="F51" s="5">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5">
-        <v>2</v>
-      </c>
-      <c r="H51" s="5">
-        <v>7</v>
-      </c>
-      <c r="I51" s="2">
-        <v>73</v>
+      <c r="C51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>12</v>
+      </c>
+      <c r="I51" s="9">
+        <v>161</v>
       </c>
       <c r="J51" s="8">
         <v>1</v>
@@ -5846,26 +5838,26 @@
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="5">
-        <v>3</v>
-      </c>
-      <c r="F52" s="5">
-        <v>0</v>
-      </c>
-      <c r="G52" s="5">
-        <v>2</v>
-      </c>
-      <c r="H52" s="5">
-        <v>7</v>
-      </c>
-      <c r="I52" s="2">
-        <v>74</v>
+      <c r="C52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9">
+        <v>163</v>
       </c>
       <c r="J52" s="8">
         <v>1</v>
@@ -5883,32 +5875,32 @@
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="5">
-        <v>3</v>
-      </c>
-      <c r="F53" s="5">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5">
-        <v>2</v>
-      </c>
-      <c r="H53" s="5">
-        <v>7</v>
-      </c>
-      <c r="I53" s="2">
-        <v>77</v>
+      <c r="C53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>12</v>
+      </c>
+      <c r="I53" s="9">
+        <v>166</v>
       </c>
       <c r="J53" s="8">
         <v>1</v>
       </c>
       <c r="K53" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
@@ -5939,7 +5931,7 @@
         <v>7</v>
       </c>
       <c r="I54" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J54" s="8">
         <v>1</v>
@@ -5950,7 +5942,7 @@
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -5976,23 +5968,171 @@
         <v>7</v>
       </c>
       <c r="I55" s="2">
+        <v>73</v>
+      </c>
+      <c r="J55" s="8">
+        <v>1</v>
+      </c>
+      <c r="K55" s="8">
+        <v>3</v>
+      </c>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+    </row>
+    <row r="56" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="5">
+        <v>3</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5">
+        <v>7</v>
+      </c>
+      <c r="I56" s="2">
+        <v>74</v>
+      </c>
+      <c r="J56" s="8">
+        <v>1</v>
+      </c>
+      <c r="K56" s="8">
+        <v>3</v>
+      </c>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+    </row>
+    <row r="57" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="5">
+        <v>3</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>2</v>
+      </c>
+      <c r="H57" s="5">
+        <v>7</v>
+      </c>
+      <c r="I57" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" s="8">
+        <v>1</v>
+      </c>
+      <c r="K57" s="8">
+        <v>3</v>
+      </c>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+    </row>
+    <row r="58" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="5">
+        <v>3</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>2</v>
+      </c>
+      <c r="H58" s="5">
+        <v>7</v>
+      </c>
+      <c r="I58" s="2">
+        <v>78</v>
+      </c>
+      <c r="J58" s="8">
+        <v>1</v>
+      </c>
+      <c r="K58" s="8">
+        <v>3</v>
+      </c>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="5">
+        <v>3</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>2</v>
+      </c>
+      <c r="H59" s="5">
+        <v>7</v>
+      </c>
+      <c r="I59" s="2">
         <v>79</v>
       </c>
-      <c r="J55" s="8">
-        <v>1</v>
-      </c>
-      <c r="K55" s="8">
-        <v>3</v>
-      </c>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
+      <c r="J59" s="8">
+        <v>1</v>
+      </c>
+      <c r="K59" s="8">
+        <v>2</v>
+      </c>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
